--- a/2022/Symphony/MAY/02.05.2022/MC Bank Statement May-2022.xlsx
+++ b/2022/Symphony/MAY/02.05.2022/MC Bank Statement May-2022.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Symphony\MAY\02.05.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\MAY\02.05.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -1128,7 +1128,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1371,6 +1371,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2182,7 +2188,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="367">
+  <cellXfs count="385">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3090,7 +3096,46 @@
     <xf numFmtId="0" fontId="33" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="43" fillId="43" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="37" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="43" fillId="43" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="43" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3249,8 +3294,23 @@
     <xf numFmtId="0" fontId="7" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="43" fillId="44" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="37" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3940,33 +4000,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="316"/>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
+      <c r="A1" s="329"/>
+      <c r="B1" s="329"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="329"/>
+      <c r="E1" s="329"/>
+      <c r="F1" s="329"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="317"/>
-      <c r="B2" s="314" t="s">
+      <c r="A2" s="330"/>
+      <c r="B2" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="317"/>
-      <c r="B3" s="315" t="s">
+      <c r="A3" s="330"/>
+      <c r="B3" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="317"/>
+      <c r="A4" s="330"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3984,7 +4044,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="317"/>
+      <c r="A5" s="330"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4002,7 +4062,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="317"/>
+      <c r="A6" s="330"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4014,7 +4074,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="317"/>
+      <c r="A7" s="330"/>
       <c r="B7" s="26" t="s">
         <v>54</v>
       </c>
@@ -4033,7 +4093,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="317"/>
+      <c r="A8" s="330"/>
       <c r="B8" s="26" t="s">
         <v>55</v>
       </c>
@@ -4052,7 +4112,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="317"/>
+      <c r="A9" s="330"/>
       <c r="B9" s="26" t="s">
         <v>57</v>
       </c>
@@ -4071,7 +4131,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="317"/>
+      <c r="A10" s="330"/>
       <c r="B10" s="26" t="s">
         <v>58</v>
       </c>
@@ -4090,7 +4150,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="317"/>
+      <c r="A11" s="330"/>
       <c r="B11" s="26" t="s">
         <v>59</v>
       </c>
@@ -4109,7 +4169,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="317"/>
+      <c r="A12" s="330"/>
       <c r="B12" s="26" t="s">
         <v>60</v>
       </c>
@@ -4128,7 +4188,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="317"/>
+      <c r="A13" s="330"/>
       <c r="B13" s="26" t="s">
         <v>61</v>
       </c>
@@ -4147,7 +4207,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="317"/>
+      <c r="A14" s="330"/>
       <c r="B14" s="26" t="s">
         <v>62</v>
       </c>
@@ -4166,7 +4226,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="317"/>
+      <c r="A15" s="330"/>
       <c r="B15" s="26" t="s">
         <v>63</v>
       </c>
@@ -4185,7 +4245,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="317"/>
+      <c r="A16" s="330"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4198,7 +4258,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="317"/>
+      <c r="A17" s="330"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4211,7 +4271,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="317"/>
+      <c r="A18" s="330"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4224,7 +4284,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="317"/>
+      <c r="A19" s="330"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4237,7 +4297,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="317"/>
+      <c r="A20" s="330"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4250,7 +4310,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="317"/>
+      <c r="A21" s="330"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4263,7 +4323,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="317"/>
+      <c r="A22" s="330"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4276,7 +4336,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="317"/>
+      <c r="A23" s="330"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4289,7 +4349,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="317"/>
+      <c r="A24" s="330"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4302,7 +4362,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="317"/>
+      <c r="A25" s="330"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4315,7 +4375,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="317"/>
+      <c r="A26" s="330"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4328,7 +4388,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="317"/>
+      <c r="A27" s="330"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4341,7 +4401,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="317"/>
+      <c r="A28" s="330"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4354,7 +4414,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="317"/>
+      <c r="A29" s="330"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4367,7 +4427,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="317"/>
+      <c r="A30" s="330"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4380,7 +4440,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="317"/>
+      <c r="A31" s="330"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4393,7 +4453,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="317"/>
+      <c r="A32" s="330"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4406,7 +4466,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="317"/>
+      <c r="A33" s="330"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4419,7 +4479,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="317"/>
+      <c r="A34" s="330"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4432,7 +4492,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="317"/>
+      <c r="A35" s="330"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4445,7 +4505,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="317"/>
+      <c r="A36" s="330"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4458,7 +4518,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="317"/>
+      <c r="A37" s="330"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4471,7 +4531,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="317"/>
+      <c r="A38" s="330"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4484,7 +4544,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="317"/>
+      <c r="A39" s="330"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4497,7 +4557,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="317"/>
+      <c r="A40" s="330"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4510,7 +4570,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="317"/>
+      <c r="A41" s="330"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4523,7 +4583,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="317"/>
+      <c r="A42" s="330"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4536,7 +4596,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="317"/>
+      <c r="A43" s="330"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4549,7 +4609,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="317"/>
+      <c r="A44" s="330"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4562,7 +4622,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="317"/>
+      <c r="A45" s="330"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4575,7 +4635,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="317"/>
+      <c r="A46" s="330"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4588,7 +4648,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="317"/>
+      <c r="A47" s="330"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4601,7 +4661,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="317"/>
+      <c r="A48" s="330"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4614,7 +4674,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="317"/>
+      <c r="A49" s="330"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4627,7 +4687,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="317"/>
+      <c r="A50" s="330"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4640,7 +4700,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="317"/>
+      <c r="A51" s="330"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4653,7 +4713,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="317"/>
+      <c r="A52" s="330"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4666,7 +4726,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="317"/>
+      <c r="A53" s="330"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4679,7 +4739,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="317"/>
+      <c r="A54" s="330"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4692,7 +4752,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="317"/>
+      <c r="A55" s="330"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4704,7 +4764,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="317"/>
+      <c r="A56" s="330"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4716,7 +4776,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="317"/>
+      <c r="A57" s="330"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4728,7 +4788,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="317"/>
+      <c r="A58" s="330"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4740,7 +4800,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="317"/>
+      <c r="A59" s="330"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4752,7 +4812,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="317"/>
+      <c r="A60" s="330"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4764,7 +4824,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="317"/>
+      <c r="A61" s="330"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4776,7 +4836,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="317"/>
+      <c r="A62" s="330"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4788,7 +4848,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="317"/>
+      <c r="A63" s="330"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4800,7 +4860,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="317"/>
+      <c r="A64" s="330"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4812,7 +4872,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="317"/>
+      <c r="A65" s="330"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4824,7 +4884,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="317"/>
+      <c r="A66" s="330"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4836,7 +4896,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="317"/>
+      <c r="A67" s="330"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4848,7 +4908,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="317"/>
+      <c r="A68" s="330"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4860,7 +4920,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="317"/>
+      <c r="A69" s="330"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4872,7 +4932,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="317"/>
+      <c r="A70" s="330"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4884,7 +4944,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="317"/>
+      <c r="A71" s="330"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4896,7 +4956,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="317"/>
+      <c r="A72" s="330"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4908,7 +4968,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="317"/>
+      <c r="A73" s="330"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4920,7 +4980,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="317"/>
+      <c r="A74" s="330"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4932,7 +4992,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="317"/>
+      <c r="A75" s="330"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4944,7 +5004,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="317"/>
+      <c r="A76" s="330"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4956,7 +5016,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="317"/>
+      <c r="A77" s="330"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4968,7 +5028,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="317"/>
+      <c r="A78" s="330"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4980,7 +5040,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="317"/>
+      <c r="A79" s="330"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4992,7 +5052,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="317"/>
+      <c r="A80" s="330"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5004,7 +5064,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="317"/>
+      <c r="A81" s="330"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5016,7 +5076,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="317"/>
+      <c r="A82" s="330"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5028,7 +5088,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="317"/>
+      <c r="A83" s="330"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5085,33 +5145,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="316"/>
-      <c r="B1" s="316"/>
-      <c r="C1" s="316"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="316"/>
-      <c r="F1" s="316"/>
+      <c r="A1" s="329"/>
+      <c r="B1" s="329"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="329"/>
+      <c r="E1" s="329"/>
+      <c r="F1" s="329"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="317"/>
-      <c r="B2" s="314" t="s">
+      <c r="A2" s="330"/>
+      <c r="B2" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="317"/>
-      <c r="B3" s="315" t="s">
+      <c r="A3" s="330"/>
+      <c r="B3" s="328" t="s">
         <v>237</v>
       </c>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="317"/>
+      <c r="A4" s="330"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5129,7 +5189,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="317"/>
+      <c r="A5" s="330"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5147,7 +5207,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="317"/>
+      <c r="A6" s="330"/>
       <c r="B6" s="26"/>
       <c r="C6" s="261"/>
       <c r="D6" s="261"/>
@@ -5159,7 +5219,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="317"/>
+      <c r="A7" s="330"/>
       <c r="B7" s="300" t="s">
         <v>238</v>
       </c>
@@ -5179,7 +5239,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="317"/>
+      <c r="A8" s="330"/>
       <c r="B8" s="26" t="s">
         <v>246</v>
       </c>
@@ -5197,7 +5257,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="317"/>
+      <c r="A9" s="330"/>
       <c r="B9" s="26"/>
       <c r="C9" s="261"/>
       <c r="D9" s="261"/>
@@ -5209,7 +5269,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="317"/>
+      <c r="A10" s="330"/>
       <c r="B10" s="26"/>
       <c r="C10" s="263"/>
       <c r="D10" s="263"/>
@@ -5221,7 +5281,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="317"/>
+      <c r="A11" s="330"/>
       <c r="B11" s="26"/>
       <c r="C11" s="261"/>
       <c r="D11" s="261"/>
@@ -5233,7 +5293,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="317"/>
+      <c r="A12" s="330"/>
       <c r="B12" s="26"/>
       <c r="C12" s="261"/>
       <c r="D12" s="261"/>
@@ -5245,7 +5305,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="317"/>
+      <c r="A13" s="330"/>
       <c r="B13" s="26"/>
       <c r="C13" s="261"/>
       <c r="D13" s="261"/>
@@ -5257,7 +5317,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="317"/>
+      <c r="A14" s="330"/>
       <c r="B14" s="26"/>
       <c r="C14" s="261"/>
       <c r="D14" s="261"/>
@@ -5269,7 +5329,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="317"/>
+      <c r="A15" s="330"/>
       <c r="B15" s="26"/>
       <c r="C15" s="261"/>
       <c r="D15" s="261"/>
@@ -5281,7 +5341,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="317"/>
+      <c r="A16" s="330"/>
       <c r="B16" s="26"/>
       <c r="C16" s="261"/>
       <c r="D16" s="261"/>
@@ -5293,7 +5353,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="317"/>
+      <c r="A17" s="330"/>
       <c r="B17" s="26"/>
       <c r="C17" s="261"/>
       <c r="D17" s="261"/>
@@ -5305,7 +5365,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="317"/>
+      <c r="A18" s="330"/>
       <c r="B18" s="26"/>
       <c r="C18" s="261"/>
       <c r="D18" s="261"/>
@@ -5317,7 +5377,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="317"/>
+      <c r="A19" s="330"/>
       <c r="B19" s="26"/>
       <c r="C19" s="261"/>
       <c r="D19" s="263"/>
@@ -5329,7 +5389,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="317"/>
+      <c r="A20" s="330"/>
       <c r="B20" s="26"/>
       <c r="C20" s="261"/>
       <c r="D20" s="261"/>
@@ -5341,7 +5401,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="317"/>
+      <c r="A21" s="330"/>
       <c r="B21" s="26"/>
       <c r="C21" s="261"/>
       <c r="D21" s="261"/>
@@ -5353,7 +5413,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="317"/>
+      <c r="A22" s="330"/>
       <c r="B22" s="26"/>
       <c r="C22" s="261"/>
       <c r="D22" s="261"/>
@@ -5365,7 +5425,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="317"/>
+      <c r="A23" s="330"/>
       <c r="B23" s="26"/>
       <c r="C23" s="261"/>
       <c r="D23" s="261"/>
@@ -5377,7 +5437,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="317"/>
+      <c r="A24" s="330"/>
       <c r="B24" s="26"/>
       <c r="C24" s="261"/>
       <c r="D24" s="261"/>
@@ -5389,7 +5449,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="317"/>
+      <c r="A25" s="330"/>
       <c r="B25" s="26"/>
       <c r="C25" s="261"/>
       <c r="D25" s="261"/>
@@ -5401,7 +5461,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="317"/>
+      <c r="A26" s="330"/>
       <c r="B26" s="26"/>
       <c r="C26" s="261"/>
       <c r="D26" s="261"/>
@@ -5413,7 +5473,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="317"/>
+      <c r="A27" s="330"/>
       <c r="B27" s="26"/>
       <c r="C27" s="261"/>
       <c r="D27" s="261"/>
@@ -5425,7 +5485,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="317"/>
+      <c r="A28" s="330"/>
       <c r="B28" s="26"/>
       <c r="C28" s="261"/>
       <c r="D28" s="261"/>
@@ -5436,7 +5496,7 @@
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="317"/>
+      <c r="A29" s="330"/>
       <c r="B29" s="26"/>
       <c r="C29" s="261"/>
       <c r="D29" s="261"/>
@@ -5448,7 +5508,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="317"/>
+      <c r="A30" s="330"/>
       <c r="B30" s="26"/>
       <c r="C30" s="261"/>
       <c r="D30" s="261"/>
@@ -5460,7 +5520,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="317"/>
+      <c r="A31" s="330"/>
       <c r="B31" s="26"/>
       <c r="C31" s="261"/>
       <c r="D31" s="261"/>
@@ -5472,7 +5532,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="317"/>
+      <c r="A32" s="330"/>
       <c r="B32" s="26"/>
       <c r="C32" s="261"/>
       <c r="D32" s="261"/>
@@ -5484,7 +5544,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="317"/>
+      <c r="A33" s="330"/>
       <c r="B33" s="26"/>
       <c r="C33" s="261"/>
       <c r="D33" s="263"/>
@@ -5496,7 +5556,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="317"/>
+      <c r="A34" s="330"/>
       <c r="B34" s="26"/>
       <c r="C34" s="261"/>
       <c r="D34" s="261"/>
@@ -5508,7 +5568,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="317"/>
+      <c r="A35" s="330"/>
       <c r="B35" s="26"/>
       <c r="C35" s="261"/>
       <c r="D35" s="261"/>
@@ -5520,7 +5580,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="317"/>
+      <c r="A36" s="330"/>
       <c r="B36" s="26"/>
       <c r="C36" s="261"/>
       <c r="D36" s="261"/>
@@ -5532,7 +5592,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="317"/>
+      <c r="A37" s="330"/>
       <c r="B37" s="26"/>
       <c r="C37" s="261"/>
       <c r="D37" s="261"/>
@@ -5544,7 +5604,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="317"/>
+      <c r="A38" s="330"/>
       <c r="B38" s="26"/>
       <c r="C38" s="261"/>
       <c r="D38" s="261"/>
@@ -5556,7 +5616,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="317"/>
+      <c r="A39" s="330"/>
       <c r="B39" s="26"/>
       <c r="C39" s="261"/>
       <c r="D39" s="261"/>
@@ -5568,7 +5628,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="317"/>
+      <c r="A40" s="330"/>
       <c r="B40" s="26"/>
       <c r="C40" s="261"/>
       <c r="D40" s="261"/>
@@ -5580,7 +5640,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="317"/>
+      <c r="A41" s="330"/>
       <c r="B41" s="26"/>
       <c r="C41" s="261"/>
       <c r="D41" s="261"/>
@@ -5592,7 +5652,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="317"/>
+      <c r="A42" s="330"/>
       <c r="B42" s="26"/>
       <c r="C42" s="261"/>
       <c r="D42" s="261"/>
@@ -5604,7 +5664,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="317"/>
+      <c r="A43" s="330"/>
       <c r="B43" s="26"/>
       <c r="C43" s="261"/>
       <c r="D43" s="261"/>
@@ -5616,7 +5676,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="317"/>
+      <c r="A44" s="330"/>
       <c r="B44" s="26"/>
       <c r="C44" s="261"/>
       <c r="D44" s="261"/>
@@ -5628,7 +5688,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="317"/>
+      <c r="A45" s="330"/>
       <c r="B45" s="26"/>
       <c r="C45" s="261"/>
       <c r="D45" s="261"/>
@@ -5640,7 +5700,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="317"/>
+      <c r="A46" s="330"/>
       <c r="B46" s="26"/>
       <c r="C46" s="261"/>
       <c r="D46" s="261"/>
@@ -5652,7 +5712,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="317"/>
+      <c r="A47" s="330"/>
       <c r="B47" s="26"/>
       <c r="C47" s="261"/>
       <c r="D47" s="261"/>
@@ -5664,7 +5724,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="317"/>
+      <c r="A48" s="330"/>
       <c r="B48" s="26"/>
       <c r="C48" s="261"/>
       <c r="D48" s="261"/>
@@ -5676,7 +5736,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="317"/>
+      <c r="A49" s="330"/>
       <c r="B49" s="26"/>
       <c r="C49" s="261"/>
       <c r="D49" s="261"/>
@@ -5688,7 +5748,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="317"/>
+      <c r="A50" s="330"/>
       <c r="B50" s="26"/>
       <c r="C50" s="261"/>
       <c r="D50" s="261"/>
@@ -5700,7 +5760,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="317"/>
+      <c r="A51" s="330"/>
       <c r="B51" s="26"/>
       <c r="C51" s="261"/>
       <c r="D51" s="261"/>
@@ -5712,7 +5772,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="317"/>
+      <c r="A52" s="330"/>
       <c r="B52" s="26"/>
       <c r="C52" s="261"/>
       <c r="D52" s="261"/>
@@ -5724,7 +5784,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="317"/>
+      <c r="A53" s="330"/>
       <c r="B53" s="26"/>
       <c r="C53" s="261"/>
       <c r="D53" s="261"/>
@@ -5736,7 +5796,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="317"/>
+      <c r="A54" s="330"/>
       <c r="B54" s="26"/>
       <c r="C54" s="261"/>
       <c r="D54" s="261"/>
@@ -5748,7 +5808,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="317"/>
+      <c r="A55" s="330"/>
       <c r="B55" s="26"/>
       <c r="C55" s="261"/>
       <c r="D55" s="261"/>
@@ -5759,7 +5819,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="317"/>
+      <c r="A56" s="330"/>
       <c r="B56" s="26"/>
       <c r="C56" s="261"/>
       <c r="D56" s="261"/>
@@ -5770,7 +5830,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="317"/>
+      <c r="A57" s="330"/>
       <c r="B57" s="26"/>
       <c r="C57" s="261"/>
       <c r="D57" s="261"/>
@@ -5781,7 +5841,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="317"/>
+      <c r="A58" s="330"/>
       <c r="B58" s="26"/>
       <c r="C58" s="261"/>
       <c r="D58" s="261"/>
@@ -5792,7 +5852,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="317"/>
+      <c r="A59" s="330"/>
       <c r="B59" s="26"/>
       <c r="C59" s="261"/>
       <c r="D59" s="261"/>
@@ -5803,7 +5863,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="317"/>
+      <c r="A60" s="330"/>
       <c r="B60" s="26"/>
       <c r="C60" s="261"/>
       <c r="D60" s="261"/>
@@ -5814,7 +5874,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="317"/>
+      <c r="A61" s="330"/>
       <c r="B61" s="26"/>
       <c r="C61" s="261"/>
       <c r="D61" s="261"/>
@@ -5825,7 +5885,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="317"/>
+      <c r="A62" s="330"/>
       <c r="B62" s="26"/>
       <c r="C62" s="261"/>
       <c r="D62" s="261"/>
@@ -5836,7 +5896,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="317"/>
+      <c r="A63" s="330"/>
       <c r="B63" s="26"/>
       <c r="C63" s="261"/>
       <c r="D63" s="261"/>
@@ -5847,7 +5907,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="317"/>
+      <c r="A64" s="330"/>
       <c r="B64" s="26"/>
       <c r="C64" s="261"/>
       <c r="D64" s="261"/>
@@ -5858,7 +5918,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="317"/>
+      <c r="A65" s="330"/>
       <c r="B65" s="26"/>
       <c r="C65" s="261"/>
       <c r="D65" s="261"/>
@@ -5869,7 +5929,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="317"/>
+      <c r="A66" s="330"/>
       <c r="B66" s="26"/>
       <c r="C66" s="261"/>
       <c r="D66" s="261"/>
@@ -5880,7 +5940,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="317"/>
+      <c r="A67" s="330"/>
       <c r="B67" s="26"/>
       <c r="C67" s="261"/>
       <c r="D67" s="261"/>
@@ -5891,7 +5951,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="317"/>
+      <c r="A68" s="330"/>
       <c r="B68" s="26"/>
       <c r="C68" s="261"/>
       <c r="D68" s="261"/>
@@ -5902,7 +5962,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="317"/>
+      <c r="A69" s="330"/>
       <c r="B69" s="26"/>
       <c r="C69" s="261"/>
       <c r="D69" s="261"/>
@@ -5913,7 +5973,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="317"/>
+      <c r="A70" s="330"/>
       <c r="B70" s="26"/>
       <c r="C70" s="261"/>
       <c r="D70" s="261"/>
@@ -5924,7 +5984,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="317"/>
+      <c r="A71" s="330"/>
       <c r="B71" s="26"/>
       <c r="C71" s="261"/>
       <c r="D71" s="261"/>
@@ -5935,7 +5995,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="317"/>
+      <c r="A72" s="330"/>
       <c r="B72" s="26"/>
       <c r="C72" s="261"/>
       <c r="D72" s="261"/>
@@ -5946,7 +6006,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="317"/>
+      <c r="A73" s="330"/>
       <c r="B73" s="26"/>
       <c r="C73" s="261"/>
       <c r="D73" s="261"/>
@@ -5957,7 +6017,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="317"/>
+      <c r="A74" s="330"/>
       <c r="B74" s="26"/>
       <c r="C74" s="261"/>
       <c r="D74" s="261"/>
@@ -5968,7 +6028,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="317"/>
+      <c r="A75" s="330"/>
       <c r="B75" s="26"/>
       <c r="C75" s="261"/>
       <c r="D75" s="261"/>
@@ -5979,7 +6039,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="317"/>
+      <c r="A76" s="330"/>
       <c r="B76" s="26"/>
       <c r="C76" s="261"/>
       <c r="D76" s="261"/>
@@ -5990,7 +6050,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="317"/>
+      <c r="A77" s="330"/>
       <c r="B77" s="26"/>
       <c r="C77" s="261"/>
       <c r="D77" s="261"/>
@@ -6001,7 +6061,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="317"/>
+      <c r="A78" s="330"/>
       <c r="B78" s="26"/>
       <c r="C78" s="261"/>
       <c r="D78" s="261"/>
@@ -6012,7 +6072,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="317"/>
+      <c r="A79" s="330"/>
       <c r="B79" s="26"/>
       <c r="C79" s="261"/>
       <c r="D79" s="261"/>
@@ -6024,7 +6084,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="317"/>
+      <c r="A80" s="330"/>
       <c r="B80" s="26"/>
       <c r="C80" s="261"/>
       <c r="D80" s="261"/>
@@ -6036,7 +6096,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="317"/>
+      <c r="A81" s="330"/>
       <c r="B81" s="26"/>
       <c r="C81" s="261"/>
       <c r="D81" s="261"/>
@@ -6048,7 +6108,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="317"/>
+      <c r="A82" s="330"/>
       <c r="B82" s="26"/>
       <c r="C82" s="261"/>
       <c r="D82" s="261"/>
@@ -6060,7 +6120,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="317"/>
+      <c r="A83" s="330"/>
       <c r="B83" s="294"/>
       <c r="C83" s="262">
         <f>SUM(C5:C72)</f>
@@ -6129,67 +6189,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="322" t="s">
+      <c r="A1" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
-      <c r="G1" s="322"/>
-      <c r="H1" s="322"/>
-      <c r="I1" s="322"/>
-      <c r="J1" s="322"/>
-      <c r="K1" s="322"/>
-      <c r="L1" s="322"/>
-      <c r="M1" s="322"/>
-      <c r="N1" s="322"/>
-      <c r="O1" s="322"/>
-      <c r="P1" s="322"/>
-      <c r="Q1" s="322"/>
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
+      <c r="N1" s="335"/>
+      <c r="O1" s="335"/>
+      <c r="P1" s="335"/>
+      <c r="Q1" s="335"/>
     </row>
     <row r="2" spans="1:24" s="70" customFormat="1" ht="18">
-      <c r="A2" s="323" t="s">
+      <c r="A2" s="336" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="323"/>
-      <c r="C2" s="323"/>
-      <c r="D2" s="323"/>
-      <c r="E2" s="323"/>
-      <c r="F2" s="323"/>
-      <c r="G2" s="323"/>
-      <c r="H2" s="323"/>
-      <c r="I2" s="323"/>
-      <c r="J2" s="323"/>
-      <c r="K2" s="323"/>
-      <c r="L2" s="323"/>
-      <c r="M2" s="323"/>
-      <c r="N2" s="323"/>
-      <c r="O2" s="323"/>
-      <c r="P2" s="323"/>
-      <c r="Q2" s="323"/>
+      <c r="B2" s="336"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
+      <c r="L2" s="336"/>
+      <c r="M2" s="336"/>
+      <c r="N2" s="336"/>
+      <c r="O2" s="336"/>
+      <c r="P2" s="336"/>
+      <c r="Q2" s="336"/>
     </row>
     <row r="3" spans="1:24" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="324" t="s">
+      <c r="A3" s="337" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="325"/>
-      <c r="C3" s="325"/>
-      <c r="D3" s="325"/>
-      <c r="E3" s="325"/>
-      <c r="F3" s="325"/>
-      <c r="G3" s="325"/>
-      <c r="H3" s="325"/>
-      <c r="I3" s="325"/>
-      <c r="J3" s="325"/>
-      <c r="K3" s="325"/>
-      <c r="L3" s="325"/>
-      <c r="M3" s="325"/>
-      <c r="N3" s="325"/>
-      <c r="O3" s="325"/>
-      <c r="P3" s="325"/>
-      <c r="Q3" s="326"/>
+      <c r="B3" s="338"/>
+      <c r="C3" s="338"/>
+      <c r="D3" s="338"/>
+      <c r="E3" s="338"/>
+      <c r="F3" s="338"/>
+      <c r="G3" s="338"/>
+      <c r="H3" s="338"/>
+      <c r="I3" s="338"/>
+      <c r="J3" s="338"/>
+      <c r="K3" s="338"/>
+      <c r="L3" s="338"/>
+      <c r="M3" s="338"/>
+      <c r="N3" s="338"/>
+      <c r="O3" s="338"/>
+      <c r="P3" s="338"/>
+      <c r="Q3" s="339"/>
       <c r="S3" s="54"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6198,52 +6258,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="72" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="327" t="s">
+      <c r="A4" s="340" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="329" t="s">
+      <c r="B4" s="342" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="318" t="s">
+      <c r="C4" s="331" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="318" t="s">
+      <c r="D4" s="331" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="318" t="s">
+      <c r="E4" s="331" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="318" t="s">
+      <c r="F4" s="331" t="s">
         <v>188</v>
       </c>
-      <c r="G4" s="318" t="s">
+      <c r="G4" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="318" t="s">
+      <c r="H4" s="331" t="s">
         <v>248</v>
       </c>
-      <c r="I4" s="318" t="s">
+      <c r="I4" s="331" t="s">
         <v>225</v>
       </c>
-      <c r="J4" s="318" t="s">
+      <c r="J4" s="331" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="318" t="s">
+      <c r="K4" s="331" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="318" t="s">
+      <c r="L4" s="331" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="318" t="s">
+      <c r="M4" s="331" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="318" t="s">
+      <c r="N4" s="331" t="s">
         <v>234</v>
       </c>
-      <c r="O4" s="320" t="s">
+      <c r="O4" s="333" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="331" t="s">
+      <c r="P4" s="344" t="s">
         <v>65</v>
       </c>
       <c r="Q4" s="132" t="s">
@@ -6256,22 +6316,22 @@
       <c r="W4" s="74"/>
     </row>
     <row r="5" spans="1:24" s="72" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="328"/>
-      <c r="B5" s="330"/>
-      <c r="C5" s="319"/>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="319"/>
-      <c r="J5" s="319"/>
-      <c r="K5" s="319"/>
-      <c r="L5" s="319"/>
-      <c r="M5" s="319"/>
-      <c r="N5" s="319"/>
-      <c r="O5" s="321"/>
-      <c r="P5" s="332"/>
+      <c r="A5" s="341"/>
+      <c r="B5" s="343"/>
+      <c r="C5" s="332"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="332"/>
+      <c r="J5" s="332"/>
+      <c r="K5" s="332"/>
+      <c r="L5" s="332"/>
+      <c r="M5" s="332"/>
+      <c r="N5" s="332"/>
+      <c r="O5" s="334"/>
+      <c r="P5" s="345"/>
       <c r="Q5" s="133" t="s">
         <v>43</v>
       </c>
@@ -9192,6 +9252,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9210,7 +9271,6 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9224,8 +9284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9252,14 +9312,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="337" t="s">
+      <c r="A1" s="350" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="339"/>
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="352"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
       <c r="I1" s="149"/>
@@ -9353,14 +9413,14 @@
       <c r="CS1" s="144"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="340" t="s">
+      <c r="A2" s="353" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="341"/>
-      <c r="C2" s="341"/>
-      <c r="D2" s="341"/>
-      <c r="E2" s="341"/>
-      <c r="F2" s="342"/>
+      <c r="B2" s="354"/>
+      <c r="C2" s="354"/>
+      <c r="D2" s="354"/>
+      <c r="E2" s="354"/>
+      <c r="F2" s="355"/>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
       <c r="I2" s="149"/>
@@ -9454,14 +9514,14 @@
       <c r="CS2" s="144"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="343" t="s">
+      <c r="A3" s="356" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
-      <c r="D3" s="344"/>
-      <c r="E3" s="344"/>
-      <c r="F3" s="345"/>
+      <c r="B3" s="357"/>
+      <c r="C3" s="357"/>
+      <c r="D3" s="357"/>
+      <c r="E3" s="357"/>
+      <c r="F3" s="358"/>
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
       <c r="I3" s="149"/>
@@ -12756,12 +12816,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="139"/>
-      <c r="B35" s="335" t="s">
+      <c r="B35" s="348" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="335"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="335"/>
+      <c r="C35" s="348"/>
+      <c r="D35" s="348"/>
+      <c r="E35" s="348"/>
       <c r="F35" s="140"/>
       <c r="G35" s="145"/>
       <c r="H35" s="145"/>
@@ -13610,10 +13670,10 @@
       <c r="D43" s="215"/>
       <c r="E43" s="183"/>
       <c r="F43" s="140"/>
-      <c r="G43" s="336"/>
-      <c r="H43" s="336"/>
-      <c r="I43" s="336"/>
-      <c r="J43" s="336"/>
+      <c r="G43" s="349"/>
+      <c r="H43" s="349"/>
+      <c r="I43" s="349"/>
+      <c r="J43" s="349"/>
       <c r="K43" s="65"/>
       <c r="L43" s="149"/>
       <c r="M43" s="65"/>
@@ -15347,19 +15407,19 @@
       <c r="CS57" s="144"/>
     </row>
     <row r="58" spans="1:97">
-      <c r="A58" s="235" t="s">
+      <c r="A58" s="314" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="315" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="123" t="s">
+      <c r="C58" s="316" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="218">
+      <c r="D58" s="317">
         <v>178000</v>
       </c>
-      <c r="E58" s="185" t="s">
+      <c r="E58" s="318" t="s">
         <v>233</v>
       </c>
       <c r="F58" s="138"/>
@@ -16445,17 +16505,17 @@
       <c r="CS66" s="144"/>
     </row>
     <row r="67" spans="1:97">
-      <c r="A67" s="235" t="s">
+      <c r="A67" s="314" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="315" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="123"/>
-      <c r="D67" s="218">
+      <c r="C67" s="316"/>
+      <c r="D67" s="317">
         <v>63400</v>
       </c>
-      <c r="E67" s="185" t="s">
+      <c r="E67" s="318" t="s">
         <v>246</v>
       </c>
       <c r="F67" s="138"/>
@@ -16563,17 +16623,17 @@
       <c r="CS67" s="144"/>
     </row>
     <row r="68" spans="1:97">
-      <c r="A68" s="235" t="s">
+      <c r="A68" s="314" t="s">
         <v>146</v>
       </c>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="319" t="s">
         <v>154</v>
       </c>
-      <c r="C68" s="123"/>
-      <c r="D68" s="218">
+      <c r="C68" s="316"/>
+      <c r="D68" s="317">
         <v>3000</v>
       </c>
-      <c r="E68" s="185" t="s">
+      <c r="E68" s="318" t="s">
         <v>175</v>
       </c>
       <c r="F68" s="138"/>
@@ -16681,19 +16741,19 @@
       <c r="CS68" s="144"/>
     </row>
     <row r="69" spans="1:97">
-      <c r="A69" s="235" t="s">
+      <c r="A69" s="314" t="s">
         <v>94</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="B69" s="321" t="s">
         <v>88</v>
       </c>
-      <c r="C69" s="123" t="s">
+      <c r="C69" s="316" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="218">
+      <c r="D69" s="317">
         <v>20000</v>
       </c>
-      <c r="E69" s="184" t="s">
+      <c r="E69" s="320" t="s">
         <v>233</v>
       </c>
       <c r="F69" s="65"/>
@@ -16925,17 +16985,17 @@
       <c r="CS70" s="144"/>
     </row>
     <row r="71" spans="1:97">
-      <c r="A71" s="235" t="s">
+      <c r="A71" s="314" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="58" t="s">
+      <c r="B71" s="315" t="s">
         <v>228</v>
       </c>
-      <c r="C71" s="123"/>
-      <c r="D71" s="218">
+      <c r="C71" s="316"/>
+      <c r="D71" s="317">
         <v>80360</v>
       </c>
-      <c r="E71" s="184" t="s">
+      <c r="E71" s="320" t="s">
         <v>224</v>
       </c>
       <c r="F71" s="140"/>
@@ -17381,7 +17441,6 @@
     <row r="75" spans="1:97">
       <c r="A75" s="235"/>
       <c r="B75" s="58"/>
-      <c r="C75" s="123"/>
       <c r="D75" s="218"/>
       <c r="E75" s="185"/>
       <c r="F75" s="138"/>
@@ -17583,17 +17642,17 @@
       <c r="CS76" s="144"/>
     </row>
     <row r="77" spans="1:97">
-      <c r="A77" s="235" t="s">
+      <c r="A77" s="314" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="57" t="s">
+      <c r="B77" s="319" t="s">
         <v>173</v>
       </c>
-      <c r="C77" s="123"/>
-      <c r="D77" s="218">
+      <c r="C77" s="316"/>
+      <c r="D77" s="317">
         <v>15000</v>
       </c>
-      <c r="E77" s="185" t="s">
+      <c r="E77" s="318" t="s">
         <v>218</v>
       </c>
       <c r="F77" s="144"/>
@@ -17701,17 +17760,17 @@
       <c r="CS77" s="144"/>
     </row>
     <row r="78" spans="1:97">
-      <c r="A78" s="235" t="s">
+      <c r="A78" s="314" t="s">
         <v>99</v>
       </c>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="315" t="s">
         <v>183</v>
       </c>
-      <c r="C78" s="123"/>
-      <c r="D78" s="218">
+      <c r="C78" s="316"/>
+      <c r="D78" s="317">
         <v>20000</v>
       </c>
-      <c r="E78" s="184" t="s">
+      <c r="E78" s="320" t="s">
         <v>238</v>
       </c>
       <c r="F78" s="291"/>
@@ -17819,17 +17878,17 @@
       <c r="CS78" s="144"/>
     </row>
     <row r="79" spans="1:97">
-      <c r="A79" s="235" t="s">
+      <c r="A79" s="314" t="s">
         <v>199</v>
       </c>
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="315" t="s">
         <v>163</v>
       </c>
-      <c r="C79" s="123"/>
-      <c r="D79" s="218">
+      <c r="C79" s="316"/>
+      <c r="D79" s="317">
         <v>20000</v>
       </c>
-      <c r="E79" s="184" t="s">
+      <c r="E79" s="320" t="s">
         <v>197</v>
       </c>
       <c r="F79" s="138"/>
@@ -18533,17 +18592,17 @@
       <c r="CS84" s="144"/>
     </row>
     <row r="85" spans="1:97">
-      <c r="A85" s="235" t="s">
+      <c r="A85" s="314" t="s">
         <v>191</v>
       </c>
-      <c r="B85" s="58" t="s">
+      <c r="B85" s="315" t="s">
         <v>192</v>
       </c>
-      <c r="C85" s="123"/>
-      <c r="D85" s="218">
+      <c r="C85" s="316"/>
+      <c r="D85" s="317">
         <v>37400</v>
       </c>
-      <c r="E85" s="186" t="s">
+      <c r="E85" s="322" t="s">
         <v>202</v>
       </c>
       <c r="F85" s="138"/>
@@ -18651,17 +18710,17 @@
       <c r="CS85" s="144"/>
     </row>
     <row r="86" spans="1:97">
-      <c r="A86" s="235" t="s">
+      <c r="A86" s="314" t="s">
         <v>191</v>
       </c>
-      <c r="B86" s="58" t="s">
+      <c r="B86" s="315" t="s">
         <v>235</v>
       </c>
-      <c r="C86" s="123"/>
-      <c r="D86" s="218">
+      <c r="C86" s="316"/>
+      <c r="D86" s="317">
         <v>4000</v>
       </c>
-      <c r="E86" s="186" t="s">
+      <c r="E86" s="322" t="s">
         <v>246</v>
       </c>
       <c r="F86" s="138"/>
@@ -18887,19 +18946,19 @@
       <c r="CS87" s="144"/>
     </row>
     <row r="88" spans="1:97">
-      <c r="A88" s="235" t="s">
+      <c r="A88" s="314" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="58" t="s">
+      <c r="B88" s="315" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="123">
+      <c r="C88" s="316">
         <v>1761236031</v>
       </c>
-      <c r="D88" s="218">
+      <c r="D88" s="317">
         <v>7000</v>
       </c>
-      <c r="E88" s="185" t="s">
+      <c r="E88" s="318" t="s">
         <v>123</v>
       </c>
       <c r="F88" s="291"/>
@@ -19007,17 +19066,17 @@
       <c r="CS88" s="144"/>
     </row>
     <row r="89" spans="1:97">
-      <c r="A89" s="235" t="s">
+      <c r="A89" s="314" t="s">
         <v>95</v>
       </c>
-      <c r="B89" s="58" t="s">
+      <c r="B89" s="315" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="123"/>
-      <c r="D89" s="218">
+      <c r="C89" s="316"/>
+      <c r="D89" s="317">
         <v>20000</v>
       </c>
-      <c r="E89" s="185" t="s">
+      <c r="E89" s="318" t="s">
         <v>176</v>
       </c>
       <c r="F89" s="138"/>
@@ -19125,17 +19184,17 @@
       <c r="CS89" s="144"/>
     </row>
     <row r="90" spans="1:97">
-      <c r="A90" s="234" t="s">
+      <c r="A90" s="324" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="315" t="s">
         <v>165</v>
       </c>
-      <c r="C90" s="123"/>
-      <c r="D90" s="218">
+      <c r="C90" s="316"/>
+      <c r="D90" s="317">
         <v>40490</v>
       </c>
-      <c r="E90" s="186" t="s">
+      <c r="E90" s="322" t="s">
         <v>164</v>
       </c>
       <c r="F90" s="138"/>
@@ -19243,17 +19302,17 @@
       <c r="CS90" s="144"/>
     </row>
     <row r="91" spans="1:97">
-      <c r="A91" s="313" t="s">
+      <c r="A91" s="325" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="124" t="s">
+      <c r="B91" s="326" t="s">
         <v>194</v>
       </c>
-      <c r="C91" s="123"/>
-      <c r="D91" s="218">
+      <c r="C91" s="316"/>
+      <c r="D91" s="317">
         <v>68210</v>
       </c>
-      <c r="E91" s="185" t="s">
+      <c r="E91" s="318" t="s">
         <v>193</v>
       </c>
       <c r="F91" s="144"/>
@@ -19363,19 +19422,19 @@
       <c r="CS91" s="144"/>
     </row>
     <row r="92" spans="1:97">
-      <c r="A92" s="235" t="s">
+      <c r="A92" s="314" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="58" t="s">
+      <c r="B92" s="315" t="s">
         <v>140</v>
       </c>
-      <c r="C92" s="123">
+      <c r="C92" s="316">
         <v>1309083520</v>
       </c>
-      <c r="D92" s="218">
+      <c r="D92" s="317">
         <v>357760</v>
       </c>
-      <c r="E92" s="185" t="s">
+      <c r="E92" s="318" t="s">
         <v>224</v>
       </c>
       <c r="F92" s="291"/>
@@ -19837,17 +19896,17 @@
       <c r="CS95" s="144"/>
     </row>
     <row r="96" spans="1:97">
-      <c r="A96" s="235" t="s">
+      <c r="A96" s="314" t="s">
         <v>249</v>
       </c>
-      <c r="B96" s="57" t="s">
+      <c r="B96" s="319" t="s">
         <v>250</v>
       </c>
-      <c r="C96" s="56"/>
-      <c r="D96" s="218">
+      <c r="C96" s="323"/>
+      <c r="D96" s="317">
         <v>4000</v>
       </c>
-      <c r="E96" s="185" t="s">
+      <c r="E96" s="318" t="s">
         <v>246</v>
       </c>
       <c r="F96" s="144"/>
@@ -20313,17 +20372,17 @@
       <c r="CS99" s="144"/>
     </row>
     <row r="100" spans="1:97">
-      <c r="A100" s="235" t="s">
+      <c r="A100" s="314" t="s">
         <v>180</v>
       </c>
-      <c r="B100" s="58" t="s">
+      <c r="B100" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="C100" s="123"/>
-      <c r="D100" s="218">
+      <c r="C100" s="316"/>
+      <c r="D100" s="317">
         <v>65000</v>
       </c>
-      <c r="E100" s="186" t="s">
+      <c r="E100" s="322" t="s">
         <v>224</v>
       </c>
       <c r="F100" s="144"/>
@@ -20431,17 +20490,17 @@
       <c r="CS100" s="144"/>
     </row>
     <row r="101" spans="1:97">
-      <c r="A101" s="235" t="s">
+      <c r="A101" s="379" t="s">
         <v>167</v>
       </c>
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="380" t="s">
         <v>168</v>
       </c>
-      <c r="C101" s="123"/>
-      <c r="D101" s="218">
+      <c r="C101" s="381"/>
+      <c r="D101" s="382">
         <v>34000</v>
       </c>
-      <c r="E101" s="185" t="s">
+      <c r="E101" s="383" t="s">
         <v>212</v>
       </c>
       <c r="F101" s="144"/>
@@ -20549,17 +20608,17 @@
       <c r="CS101" s="144"/>
     </row>
     <row r="102" spans="1:97">
-      <c r="A102" s="235" t="s">
+      <c r="A102" s="379" t="s">
         <v>148</v>
       </c>
-      <c r="B102" s="58" t="s">
+      <c r="B102" s="380" t="s">
         <v>210</v>
       </c>
-      <c r="C102" s="123"/>
-      <c r="D102" s="218">
+      <c r="C102" s="381"/>
+      <c r="D102" s="382">
         <v>43000</v>
       </c>
-      <c r="E102" s="186" t="s">
+      <c r="E102" s="384" t="s">
         <v>208</v>
       </c>
       <c r="F102" s="144"/>
@@ -20667,17 +20726,17 @@
       <c r="CS102" s="144"/>
     </row>
     <row r="103" spans="1:97">
-      <c r="A103" s="235" t="s">
+      <c r="A103" s="379" t="s">
         <v>148</v>
       </c>
-      <c r="B103" s="58" t="s">
+      <c r="B103" s="380" t="s">
         <v>149</v>
       </c>
-      <c r="C103" s="123"/>
-      <c r="D103" s="218">
+      <c r="C103" s="381"/>
+      <c r="D103" s="382">
         <v>128000</v>
       </c>
-      <c r="E103" s="185" t="s">
+      <c r="E103" s="383" t="s">
         <v>218</v>
       </c>
       <c r="F103" s="144"/>
@@ -20785,17 +20844,17 @@
       <c r="CS103" s="144"/>
     </row>
     <row r="104" spans="1:97">
-      <c r="A104" s="235" t="s">
+      <c r="A104" s="379" t="s">
         <v>177</v>
       </c>
-      <c r="B104" s="58" t="s">
+      <c r="B104" s="380" t="s">
         <v>178</v>
       </c>
-      <c r="C104" s="123"/>
-      <c r="D104" s="218">
+      <c r="C104" s="381"/>
+      <c r="D104" s="382">
         <v>7700</v>
       </c>
-      <c r="E104" s="185" t="s">
+      <c r="E104" s="383" t="s">
         <v>176</v>
       </c>
       <c r="F104" s="144"/>
@@ -20905,17 +20964,17 @@
       <c r="CS104" s="144"/>
     </row>
     <row r="105" spans="1:97">
-      <c r="A105" s="235" t="s">
+      <c r="A105" s="379" t="s">
         <v>148</v>
       </c>
-      <c r="B105" s="58" t="s">
+      <c r="B105" s="380" t="s">
         <v>229</v>
       </c>
-      <c r="C105" s="123"/>
-      <c r="D105" s="218">
+      <c r="C105" s="381"/>
+      <c r="D105" s="382">
         <v>39000</v>
       </c>
-      <c r="E105" s="186" t="s">
+      <c r="E105" s="384" t="s">
         <v>224</v>
       </c>
       <c r="F105" s="144"/>
@@ -22393,11 +22452,11 @@
       <c r="CS118" s="144"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="333" t="s">
+      <c r="A119" s="346" t="s">
         <v>30</v>
       </c>
-      <c r="B119" s="334"/>
-      <c r="C119" s="346"/>
+      <c r="B119" s="347"/>
+      <c r="C119" s="359"/>
       <c r="D119" s="221">
         <f>SUM(D37:D118)</f>
         <v>4094155</v>
@@ -22600,11 +22659,11 @@
       <c r="CS120" s="144"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="333" t="s">
+      <c r="A121" s="346" t="s">
         <v>31</v>
       </c>
-      <c r="B121" s="334"/>
-      <c r="C121" s="334"/>
+      <c r="B121" s="347"/>
+      <c r="C121" s="347"/>
       <c r="D121" s="221">
         <f>D119+M121</f>
         <v>4094155</v>
@@ -33841,7 +33900,7 @@
   </sheetPr>
   <dimension ref="A1:Y226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
@@ -33861,35 +33920,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="366" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="355"/>
+      <c r="B1" s="367"/>
+      <c r="C1" s="367"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="368"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="359" t="s">
+      <c r="A2" s="372" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="361"/>
+      <c r="B2" s="373"/>
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="374"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="369" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="357"/>
-      <c r="C3" s="357"/>
-      <c r="D3" s="357"/>
-      <c r="E3" s="358"/>
+      <c r="B3" s="370"/>
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="371"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33912,15 +33971,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="362" t="s">
+      <c r="A4" s="375" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="363"/>
+      <c r="B4" s="376"/>
       <c r="C4" s="272"/>
-      <c r="D4" s="364" t="s">
+      <c r="D4" s="377" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="365"/>
+      <c r="E4" s="378"/>
       <c r="F4" s="5"/>
       <c r="G4" s="46"/>
       <c r="H4" s="7"/>
@@ -34230,7 +34289,7 @@
       <c r="Y13" s="7"/>
     </row>
     <row r="14" spans="1:25" ht="21.75">
-      <c r="A14" s="366" t="s">
+      <c r="A14" s="313" t="s">
         <v>160</v>
       </c>
       <c r="B14" s="296">
@@ -34388,13 +34447,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="22.5">
-      <c r="A19" s="350" t="s">
+      <c r="A19" s="363" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="351"/>
-      <c r="C19" s="351"/>
-      <c r="D19" s="351"/>
-      <c r="E19" s="352"/>
+      <c r="B19" s="364"/>
+      <c r="C19" s="364"/>
+      <c r="D19" s="364"/>
+      <c r="E19" s="365"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -35084,13 +35143,13 @@
       <c r="Y40" s="7"/>
     </row>
     <row r="41" spans="1:25" ht="21" thickBot="1">
-      <c r="A41" s="347" t="s">
+      <c r="A41" s="360" t="s">
         <v>251</v>
       </c>
-      <c r="B41" s="348"/>
-      <c r="C41" s="348"/>
-      <c r="D41" s="348"/>
-      <c r="E41" s="349"/>
+      <c r="B41" s="361"/>
+      <c r="C41" s="361"/>
+      <c r="D41" s="361"/>
+      <c r="E41" s="362"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
